--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf7.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf7.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O conceito de alto mar abrange todas as áreas marítimas situadas além do mar territorial, incluindo a zona econômica exclusiva.</t>
+          <t>As disposições sobre o alto mar aplicam-se inclusive às zonas econômicas exclusivas e ao mar territorial dos Estados costeiros.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 86 define o âmbito de aplicação excluindo a ZEE, o mar territorial e as águas interiores/arquipelágicas.</t>
+          <t>Conforme o **art. 86**, as disposições aplicam-se a todas as partes do mar não incluídas na zona econômica exclusiva, no mar territorial ou nas águas interiores.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O alto mar está aberto a todos os Estados, quer costeiros quer sem litoral, compreendendo liberdades como a de navegação, sobrevoo e pesca.</t>
+          <t>O alto mar está aberto a todos os Estados, quer costeiros quer sem litoral, compreendendo liberdades como navegação, sobrevoo e pesca.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O acesso e as liberdades do alto mar são privilégios exclusivos dos Estados costeiros, sendo vedados aos Estados sem litoral.</t>
+          <t>O alto mar está aberto apenas aos Estados costeiros, sendo vedado o exercício de liberdades como a pesca por Estados sem litoral.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 87 garante que o alto mar está aberto a todos os Estados, costeiros ou sem litoral.</t>
+          <t>Segundo o **art. 87, parágrafo 1º**, o alto mar está aberto a todos os Estados, quer costeiros quer sem litoral.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,12 +551,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Estados com plataformas continentais estendidas podem legitimamente reivindicar soberania sobre a coluna d'água do alto mar sobrejacente.</t>
+          <t>Estados com maior poder naval podem legitimamente reivindicar soberania sobre setores estratégicos do alto mar.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 89 estabelece a ilegitimidade de qualquer reivindicação de soberania sobre o alto mar.</t>
+          <t>De acordo com o **art. 89**, nenhum Estado pode legitimamente pretender submeter qualquer parte do alto mar à sua soberania.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deve existir um vínculo substancial entre o Estado e o navio para que aquele possa atribuir-lhe a sua nacionalidade.</t>
+          <t>Deve existir um vínculo substancial entre o Estado e o navio para a atribuição de nacionalidade.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A atribuição de nacionalidade a um navio é um ato discricionário que não exige qualquer vínculo real ou substancial entre o Estado e o navio.</t>
+          <t>A atribuição de nacionalidade a um navio é livre, não sendo necessária a existência de vínculo substancial entre o Estado e o navio.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 91 exige a existência de um vínculo substancial entre o Estado e o navio.</t>
+          <t>Conforme o **art. 91, parágrafo 1º**, deve existir um vínculo substancial entre o Estado e o navio.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,27 +619,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Um navio que navegue sob a bandeira de dois ou mais Estados, utilizando-as segundo a sua conveniência, pode ser considerado um navio sem nacionalidade.</t>
+          <t>Um navio que navegue sob a bandeira de dois ou mais Estados, utilizando-as segundo as suas conveniências, pode ser considerado um navio sem nacionalidade.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Navios podem utilizar bandeiras de múltiplos Estados simultaneamente no alto mar para garantir maior proteção diplomática.</t>
+          <t>Navios podem navegar sob múltiplas bandeiras simultaneamente, gozando da proteção de todas as nacionalidades arvoradas.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 92 determina que navios com múltiplas bandeiras por conveniência podem ser considerados apátridas.</t>
+          <t>Segundo o **art. 92, parágrafo 2º**, tal navio não pode reivindicar qualquer dessas nacionalidades e pode ser considerado sem nacionalidade.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -653,27 +653,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág. 26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Salvo casos excepcionais previstos em tratados, os navios devem submeter-se, no alto mar, à jurisdição exclusiva do Estado da sua bandeira.</t>
+          <t>Todo Estado deve exercer jurisdição e controle efetivos em questões administrativas, técnicas e sociais sobre navios que arvorem a sua bandeira.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No alto mar, qualquer navio está sujeito à jurisdição concorrente de todos os Estados costeiros da região.</t>
+          <t>O Estado de bandeira não possui responsabilidade sobre questões sociais e técnicas do navio quando este se encontra em alto mar.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 92 estabelece a regra da jurisdição exclusiva do Estado da bandeira no alto mar.</t>
+          <t>O texto do **art. 94, parágrafo 1º**, estabelece o dever do Estado de exercer jurisdição e controle de modo efetivo.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -687,12 +687,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Navios de guerra perdem sua imunidade de jurisdição no alto mar se entrarem em zonas de interesse de segurança de outros Estados.</t>
+          <t>Navios de guerra no alto mar podem ser submetidos à jurisdição de qualquer Estado costeiro se houver suspeita de irregularidade administrativa.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 95 garante imunidade completa de jurisdição aos navios de guerra no alto mar.</t>
+          <t>Conforme o **art. 95**, navios de guerra gozam de completa imunidade de jurisdição relativamente a qualquer outro Estado que não seja o da sua bandeira.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -721,27 +721,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O Estado de bandeira deve ordenar um inquérito por pessoa qualificada em caso de acidente no alto mar que cause danos graves ao meio marinho ou perdas de vida.</t>
+          <t>Em caso de abalroamento no alto mar, procedimentos penais só podem ser iniciados perante as autoridades do Estado de bandeira ou do Estado do qual as pessoas sejam nacionais.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Acidentes no alto mar são de responsabilidade exclusiva das seguradoras, não cabendo ao Estado de bandeira realizar inquéritos oficiais.</t>
+          <t>Em caso de abalroamento no alto mar, qualquer Estado afetado pelo acidente tem competência para iniciar procedimentos penais contra o capitão.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 94 obriga o Estado a ordenar a abertura de inquérito em casos de acidentes graves.</t>
+          <t>Segundo o **art. 97, parágrafo 1º**, a jurisdição penal é exclusiva do Estado de bandeira ou do Estado de nacionalidade do acusado.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -755,27 +755,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág. 27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Navios pertencentes a um Estado e utilizados unicamente em serviço oficial não comercial têm imunidade de jurisdição no alto mar perante outros Estados.</t>
+          <t>Nenhum apresamento ou retenção do navio pode ser ordenado, nem mesmo como medida de investigação, por outras autoridades que não as do Estado de bandeira.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Navios de Estado em serviço oficial não comercial estão sujeitos à jurisdição de qualquer Estado no alto mar, tal como os navios mercantes.</t>
+          <t>Autoridades de qualquer Estado podem ordenar a retenção de um navio estrangeiro em alto mar para fins de investigação de incidentes de navegação.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 96 estende a imunidade aos navios de Estado em serviço oficial não comercial.</t>
+          <t>De acordo com o **art. 97, parágrafo 3º**, nenhum apresamento ou retenção pode ser ordenado por autoridades que não as do Estado de bandeira.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,27 +789,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Em caso de abalroamento no alto mar, procedimentos penais contra o capitão só podem ser iniciados perante o Estado de bandeira ou o Estado de nacionalidade do capitão.</t>
+          <t>Todo Estado deve exigir que o capitão de um navio de sua bandeira preste assistência a qualquer pessoa encontrada no mar em perigo de desaparecer.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Em caso de abalroamento no alto mar, o capitão pode ser julgado criminalmente por qualquer Estado que tenha sofrido prejuízos econômicos.</t>
+          <t>O dever de prestar assistência no mar é facultativo e depende da autorização prévia do armador do navio.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 97 limita a jurisdição penal ao Estado da bandeira ou da nacionalidade do acusado.</t>
+          <t>Conforme o **art. 98, parágrafo 1º, alínea 'a'**, é dever do Estado exigir que o capitão preste assistência a pessoas em perigo.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -823,27 +823,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Todo escravo que se refugie num navio, qualquer que seja a sua bandeira, ficará, ipso facto, livre.</t>
+          <t>A pirataria consiste em atos ilícitos de violência cometidos para fins privados, pela tripulação ou passageiros de um navio privado, contra outro navio em alto mar.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Escravos que se refugiem em navios no alto mar devem ser devolvidos às autoridades de origem, respeitando a propriedade do navio transportador.</t>
+          <t>A pirataria pode ser caracterizada por atos de violência cometidos por navios de guerra agindo sob ordens oficiais de seu governo contra navios mercantes.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 99 determina a liberdade automática (ipso facto) de escravos refugiados em navios.</t>
+          <t>Segundo a definição do **art. 101, alínea 'a'**, a pirataria exige fins privados e ser cometida por tripulação ou passageiros de navio privado.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -857,27 +857,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág. 28</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A pirataria é definida como ato ilícito de violência cometido para fins privados contra navios ou aeronaves em alto mar ou lugar sem jurisdição estatal.</t>
+          <t>Todo Estado pode apresar, no alto mar, um navio pirata e prender as pessoas e apreender os bens que se encontrem a bordo.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atos de violência cometidos por motivos políticos dentro do mar territorial de um Estado são classificados juridicamente como pirataria segundo a Convenção.</t>
+          <t>Apenas o Estado de nacionalidade das vítimas tem competência para apresar um navio pirata em alto mar.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 101 define pirataria exigindo fins privados e ocorrência em alto mar ou local sem jurisdição.</t>
+          <t>O texto do **art. 105** confere a todo Estado o poder de apresar navios piratas no alto mar ou lugar não submetido à jurisdição de qualquer Estado.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -891,27 +891,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág. 29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Todo Estado pode apresar um navio pirata no alto mar e os seus tribunais podem decidir as penas a aplicar.</t>
+          <t>Se um navio for apresado por suspeita de pirataria sem motivo suficiente, o Estado que o apresou será responsável por qualquer perda ou dano causados.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Apenas o Estado de nacionalidade do navio atacado tem competência para apresar e julgar piratas no alto mar.</t>
+          <t>O Estado que apresa um navio por suspeita de pirataria goza de imunidade total, não sendo responsável por danos mesmo se a suspeita for infundada.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 105 confere competência universal a todo Estado para apresar navios piratas no alto mar.</t>
+          <t>De acordo com o **art. 106**, há responsabilidade do Estado apresador perante o Estado do navio por perdas e danos se não houver motivo suficiente.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -925,27 +925,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág. 29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Se um navio for apresado por suspeita de pirataria sem motivo suficiente, o Estado que o apresou será responsável por perdas e danos.</t>
+          <t>As transmissões não autorizadas a partir do alto mar podem ser processadas pelos tribunais do Estado de bandeira, do registro da instalação ou da nacionalidade do autor, entre outros.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>O Estado que apresa um navio por suspeita de pirataria tem imunidade total e não responde por danos caso a suspeita seja infundada.</t>
+          <t>Apenas o Estado de bandeira do navio tem competência para processar responsáveis por transmissões não autorizadas a partir do alto mar.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O Artigo 106 estabelece a responsabilidade do Estado apresador por apresamentos sem motivo suficiente.</t>
+          <t>O **art. 109, parágrafo 3º**, lista múltiplos Estados competentes, incluindo o de bandeira, registro, nacionalidade da pessoa e onde a transmissão é recebida.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -959,27 +959,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág. 29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Qualquer pessoa que efetue transmissões não autorizadas a partir do alto mar pode ser processada pelo Estado em que as transmissões sejam recebidas.</t>
+          <t>Todos os Estados devem cooperar para a repressão do tráfico ilícito de estupefacientes praticado por navios no alto mar.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transmissões de rádio não autorizadas a partir do alto mar são protegidas pela liberdade de expressão e não podem ser punidas por nenhum Estado.</t>
+          <t>A repressão ao tráfico de estupefacientes no alto mar é de responsabilidade exclusiva do Estado de bandeira, sendo vedada a cooperação externa.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O Artigo 109 lista os Estados com jurisdição, incluindo aquele onde a transmissão é recebida.</t>
+          <t>Conforme o **art. 108, parágrafo 1º**, todos os Estados devem cooperar para a repressão do tráfico ilícito.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -993,27 +993,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág. 30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Um navio de guerra pode visitar um navio estrangeiro no alto mar se houver suspeita razoável de que este se dedica à pirataria ou ao tráfico de escravos.</t>
+          <t>Um navio de guerra pode exercer direito de visita se houver suspeita razoável de que o navio estrangeiro se dedica à pirataria ou ao tráfico de escravos.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>O direito de visita no alto mar é absoluto, permitindo que navios de guerra inspecionem qualquer navio mercante sem necessidade de suspeita específica.</t>
+          <t>Um navio de guerra tem livre direito de visita sobre qualquer navio estrangeiro no alto mar, independentemente de suspeitas fundamentadas.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 110 limita o direito de visita a casos específicos como pirataria, escravidão ou falta de nacionalidade.</t>
+          <t>Segundo o **art. 110, parágrafo 1º**, o direito de visita é exceção e requer suspeitas específicas como pirataria, escravidão ou falta de nacionalidade.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1027,27 +1027,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág. 30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O direito de perseguição cessa no momento em que o navio perseguido entra no mar territorial do seu próprio Estado ou de um terceiro Estado.</t>
+          <t>O direito de perseguição deve iniciar-se quando o navio estrangeiro se encontra nas águas interiores, arquipelágicas, mar territorial ou zona contígua do Estado perseguidor.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O direito de perseguição permite que o navio perseguidor entre no mar territorial de terceiros Estados para efetuar a captura.</t>
+          <t>O direito de perseguição pode ser iniciado a qualquer momento, mesmo que o navio estrangeiro já se encontre em alto mar no momento da descoberta da infração.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Artigo 111, parágrafo 3, determina a cessação da perseguição ao entrar no mar territorial de outro Estado.</t>
+          <t>Conforme o **art. 111, parágrafo 1º**, a perseguição deve iniciar-se dentro das zonas sob jurisdição do Estado costeiro (águas interiores, mar territorial, etc.).</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1061,27 +1061,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág. 30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A perseguição só pode ser iniciada se o navio estrangeiro estiver dentro das águas interiores, mar territorial ou zona contígua do Estado perseguidor.</t>
+          <t>O direito de perseguição cessa no momento em que o navio perseguido entra no mar territorial do seu próprio Estado ou de um terceiro Estado.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A perseguição (hot pursuit) pode ser iniciada mesmo se o navio suspeito já estiver em alto mar no momento da detecção.</t>
+          <t>O direito de perseguição é absoluto e continua mesmo se o navio perseguido adentrar o mar territorial de outro Estado.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Artigo 111 exige que o navio esteja em áreas sob jurisdição do Estado costeiro para iniciar a perseguição.</t>
+          <t>O texto do **art. 111, parágrafo 3º**, estabelece que o direito cessa ao entrar no mar territorial do seu próprio Estado ou de terceiro.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1095,27 +1095,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág. 31</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Se um navio for parado fora do mar territorial em circunstâncias que não justifiquem o direito de perseguição, deve ser indenizado por perdas ou danos.</t>
+          <t>Todos os Estados têm o direito de colocar cabos e dutos submarinos no leito do alto mar além da plataforma continental.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Navios parados indevidamente fora do mar territorial não têm direito a indenização, pois a fiscalização é prerrogativa do Estado costeiro.</t>
+          <t>A colocação de cabos e dutos submarinos no leito do alto mar é privilégio exclusivo dos Estados costeiros adjacentes.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 111, parágrafo 8, prevê indenização para paradas injustificadas fora do mar territorial.</t>
+          <t>De acordo com o **art. 112, parágrafo 1º**, todos os Estados têm esse direito.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1129,27 +1129,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág. 31</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Todo Estado deve punir a ruptura ou danificação de cabos submarinos no alto mar causada intencionalmente ou por negligência culposa por navios de sua bandeira.</t>
+          <t>O direito de pesca no alto mar está sujeito às obrigações convencionais e aos direitos e deveres dos Estados costeiros previstos na Convenção.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A danificação de cabos submarinos no alto mar é considerada um risco civil e não deve ser objeto de sanções penais ou infrações pelos Estados.</t>
+          <t>O direito de pesca no alto mar é absoluto e incondicional, não estando sujeito a quaisquer interesses dos Estados costeiros.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 113 obriga os Estados a criarem leis punindo a ruptura de cabos submarinos.</t>
+          <t>Conforme o **art. 116**, o direito de pesca sujeita-se a obrigações convencionais e aos interesses dos Estados costeiros (ex: art. 63 a 67).</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1163,27 +1163,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág. 31</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Proprietários de navios devem ser indenizados se provarem ter sacrificado uma âncora ou rede para evitar danos a um cabo submarino.</t>
+          <t>Todos os Estados têm o dever de tomar medidas necessárias para a conservação dos recursos vivos do alto mar em relação aos seus respectivos nacionais.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>O proprietário de um cabo submarino não tem responsabilidade de indenizar navios que percam equipamentos para evitar danos ao cabo.</t>
+          <t>A conservação dos recursos vivos do alto mar é responsabilidade exclusiva das organizações internacionais, isentando os Estados de deveres individuais.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 115 garante a indenização pelo sacrifício de equipamentos para proteger cabos.</t>
+          <t>Segundo o **art. 117**, todos os Estados têm o dever de tomar ou cooperar para tomar medidas de conservação.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1197,27 +1197,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág. 32</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Todos os Estados têm o dever de tomar medidas, em relação aos seus nacionais, para a conservação dos recursos vivos do alto mar.</t>
+          <t>Os Estados devem cooperar para estabelecer organizações sub-regionais ou regionais de pesca para a conservação e gestão dos recursos vivos.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>No alto mar, a pesca é uma liberdade absoluta, não havendo dever jurídico dos Estados em adotar medidas de conservação.</t>
+          <t>A criação de organizações regionais de pesca é vedada, devendo a gestão ser feita unicamente de forma unilateral por cada Estado.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>O Artigo 117 impõe o dever de tomar medidas de conservação dos recursos vivos.</t>
+          <t>O texto do **art. 118** determina que os Estados devem cooperar e, quando apropriado, estabelecer organizações para tal fim.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1231,27 +1231,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág. 32</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Estados cujos nacionais aproveitem recursos vivos idênticos na mesma zona do alto mar devem negociar medidas de conservação.</t>
+          <t>As medidas de conservação devem basear-se nos melhores dados científicos disponíveis para manter as populações a níveis de máximo rendimento constante.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cada Estado é livre para explorar os recursos do alto mar unilateralmente, sem obrigação de cooperar com outros Estados que pesquem na mesma área.</t>
+          <t>As medidas de conservação devem priorizar exclusivamente o lucro econômico imediato, independentemente dos dados científicos sobre as populações.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>O Artigo 118 exige a cooperação e negociação entre Estados que exploram os mesmos recursos.</t>
+          <t>Conforme o **art. 119, parágrafo 1º, alínea 'a'**, as medidas baseiam-se nos melhores dados científicos para produzir o máximo rendimento constante.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1265,27 +1265,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág. 32</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Parte VII</t>
+          <t>Parte VII - Alto Mar</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>As medidas de conservação devem visar manter as populações a níveis que possam produzir o máximo rendimento constante (sustentável).</t>
+          <t>Os Estados devem assegurar que as medidas de conservação não sejam discriminatórias, nem de direito nem de fato, para os pescadores de nenhum Estado.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>As medidas de conservação devem focar exclusivamente na maximização do lucro imediato, independentemente da sustentabilidade biológica.</t>
+          <t>Os Estados podem aplicar medidas de conservação que discriminem pescadores estrangeiros para favorecer sua indústria nacional no alto mar.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>O Artigo 119 estabelece o objetivo do máximo rendimento constante (sustentável) qualificado por fatores ecológicos.</t>
+          <t>De acordo com o **art. 119, parágrafo 3º**, as medidas não podem ser discriminatórias para os pescadores de nenhum Estado.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
